--- a/data/paragens.xlsx
+++ b/data/paragens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribeiro/Projetos/srcr-transportes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB4EC41-3886-4A48-80D5-01CFA57AAEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA2DA2-94B1-4F45-8C1A-D7704694AC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8096" uniqueCount="2478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="2478">
   <si>
     <t>latitude</t>
   </si>
@@ -7490,11 +7490,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7865,8 +7869,8 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:K810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F322" workbookViewId="0">
-      <selection activeCell="J343" sqref="J343"/>
+    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C649" sqref="C649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9559,7 +9563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -9572,7 +9576,7 @@
       <c r="D49" t="s">
         <v>11</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>1705</v>
       </c>
       <c r="F49" t="s">
@@ -30531,7 +30535,7 @@
       <c r="B648" t="s">
         <v>1094</v>
       </c>
-      <c r="C648" t="s">
+      <c r="C648" s="3" t="s">
         <v>1095</v>
       </c>
       <c r="D648" t="s">
@@ -30566,7 +30570,7 @@
       <c r="B649" t="s">
         <v>1122</v>
       </c>
-      <c r="C649" t="s">
+      <c r="C649" s="3" t="s">
         <v>1123</v>
       </c>
       <c r="D649" t="s">
@@ -30597,6 +30601,12 @@
     <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>10</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1123</v>
       </c>
       <c r="D650" t="s">
         <v>11</v>

--- a/data/paragens.xlsx
+++ b/data/paragens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribeiro/Projetos/srcr-transportes/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ribeiro\Projetos\srcr-transportes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA2DA2-94B1-4F45-8C1A-D7704694AC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BE70F-5E71-43F3-A3DF-A7E59F1AD4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -7869,21 +7869,21 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:K810"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A633" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C649" sqref="C649"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="10" max="10" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="30.875" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2103</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>940</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>943</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1651</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1304</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1307</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1569</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1572</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1575</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1589</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2016</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2020</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1729</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1765</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>981</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>984</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1001</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1002</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1182</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1190</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1344</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1348</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1697</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1180</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1310</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1315</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>988</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1308</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1314</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1455</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1763</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>811</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2045</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2048</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>918</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>923</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>926</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>929</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>932</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1193</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1795</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1800</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1801</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2217</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2366</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>11</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1705</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
         <v>2399</v>
@@ -9598,7 +9598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1711</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1720</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1721</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1724</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2373</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1971</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2027</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1472</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2023</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1480</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1483</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>935</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>960</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>964</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1005</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1009</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2207</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2248</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2390</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2391</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>337</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>271</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1587</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1588</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>578</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2100</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>513</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>523</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>524</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>527</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>538</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2013</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1183</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1041</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1042</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2193</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1377</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1384</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2200</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>547</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1860</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1275</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>561</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1867</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2198</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2332</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1264</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1808</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>698</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>700</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>701</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>702</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1261</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1271</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1878</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>972</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>983</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>534</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2008</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2010</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1612</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1614</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>530</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2009</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1603</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>440</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>961</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>517</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>947</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1103</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1590</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1576</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1578</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1580</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1581</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1582</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1594</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1595</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1596</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1597</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1875</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1585</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1593</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2091</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2106</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2112</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1636</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1638</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1639</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2061</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2064</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2069</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2073</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2074</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2085</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1191</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>668</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>718</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>719</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>73</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>75</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1110</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>395</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>643</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>650</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1102</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1446</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1447</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1449</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1661</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1057</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1674</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1684</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1690</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1692</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1741</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>715</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>552</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>562</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>565</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>569</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>614</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>617</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1337</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1106</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1006</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1445</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>636</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1796</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>389</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>366</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1901</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>343</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1380</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1387</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1092</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1396</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1406</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1407</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2197</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>29</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1399</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1403</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1420</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1425</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1428</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>348</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2189</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>38</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>957</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1621</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1625</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1628</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1829</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1834</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1053</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1870</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1807</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2199</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1921</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1779</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1017</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1021</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1025</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1028</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1031</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1044</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1045</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1880</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>2335</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>688</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>956</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1101</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>686</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>691</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>694</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>697</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1258</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1526</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1529</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1534</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1537</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1540</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1549</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1554</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1557</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1560</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1563</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1873</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>549</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1267</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1291</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>365</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>367</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>467</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1885</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>741</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>774</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>781</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>787</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>794</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>803</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>807</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>2317</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>2320</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>2181</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>631</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>436</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>81</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1414</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>800</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>381</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>475</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>375</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>379</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>406</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>74</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>458</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>823</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>856</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>860</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>863</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>866</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1070</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1076</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1079</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1087</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>582</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>2167</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1888</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1891</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1894</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>2376</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>2380</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>2162</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>2170</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>2173</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1755</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>2178</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>2307</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>2311</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>2314</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>2323</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>2326</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2329</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1176</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1072</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>726</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>732</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>735</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>738</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>904</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>909</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>912</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>915</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1186</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1189</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>968</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1854</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>181</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>185</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1825</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>453</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>457</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1818</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1822</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1117</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>488</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>492</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>495</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1156</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>176</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2300</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1460</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1469</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1523</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2299</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2301</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2304</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1467</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1522</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>124</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>128</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>131</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>134</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>137</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>140</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>143</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>146</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1769</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>429</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1775</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>413</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>418</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>421</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>57</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>471</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>662</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>665</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>666</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>672</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>744</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>748</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>751</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>881</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>884</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>770</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>501</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>505</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>508</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1975</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1978</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>870</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>658</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>671</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>251</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>253</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1356</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1359</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>237</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>239</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>241</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>242</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>246</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>247</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2338</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2343</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1830</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2348</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>818</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1351</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1363</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>895</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>899</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2097</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>204</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>208</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>209</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>210</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>211</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>212</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1931</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1935</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1938</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1941</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1944</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>967</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>974</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>977</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>980</v>
       </c>
@@ -22408,7 +22408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>995</v>
       </c>
@@ -22443,7 +22443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1000</v>
       </c>
@@ -22478,7 +22478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>605</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1163</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1167</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1170</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1173</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1342</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1347</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1695</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1269</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1521</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1566</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1579</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1097</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1608</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1611</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>996</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1613</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>430</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1906</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1981</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1339</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1452</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1516</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1410</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>877</v>
       </c>
@@ -23353,7 +23353,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>354</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1645</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1648</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1954</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1958</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1962</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1965</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1968</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2203</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1458</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1882</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1296</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2223</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2224</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2243</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2244</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2245</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>188</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>192</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2206</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>2213</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2214</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>624</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2234</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>414</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2235</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>408</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2255</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2259</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>85</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>94</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>97</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>100</v>
       </c>
@@ -24508,7 +24508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>103</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>69</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2136</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>86</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2143</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>2147</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>2150</v>
       </c>
@@ -24753,7 +24753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1844</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>606</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1849</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1128</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1132</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1135</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1138</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1141</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1147</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>113</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>118</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1160</v>
       </c>
@@ -25173,7 +25173,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>90</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>106</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>110</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1373</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1618</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>2118</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>195</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>2124</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>2127</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>554</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1196</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>149</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>156</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>159</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>162</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>165</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>577</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>586</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>2130</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>2185</v>
       </c>
@@ -25908,7 +25908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>676</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1056</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1091</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1897</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1494</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1497</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1319</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1323</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1327</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1334</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>215</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>398</v>
       </c>
@@ -26328,7 +26328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1224</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1227</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>723</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1369</v>
       </c>
@@ -26468,7 +26468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>258</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>262</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>170</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>297</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>300</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>303</v>
       </c>
@@ -26678,7 +26678,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>306</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>286</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>309</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>312</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>315</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>2271</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1012</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>905</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>424</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1487</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1491</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1500</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1177</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>541</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>544</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>728</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1928</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>987</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1392</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1395</v>
       </c>
@@ -27378,7 +27378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>349</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>951</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1063</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1841</v>
       </c>
@@ -27518,7 +27518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>610</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1868</v>
       </c>
@@ -27588,7 +27588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1869</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>34</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1923</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1778</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1022</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1034</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1037</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1040</v>
       </c>
@@ -27868,7 +27868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1043</v>
       </c>
@@ -27903,7 +27903,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1048</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1404</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1211</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>87</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1241</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1245</v>
       </c>
@@ -28113,7 +28113,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1248</v>
       </c>
@@ -28148,7 +28148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1251</v>
       </c>
@@ -28183,7 +28183,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1254</v>
       </c>
@@ -28218,7 +28218,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1782</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>597</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>601</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>2355</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>2359</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1278</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1282</v>
       </c>
@@ -28463,7 +28463,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1285</v>
       </c>
@@ -28498,7 +28498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1288</v>
       </c>
@@ -28533,7 +28533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1366</v>
       </c>
@@ -28568,7 +28568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1061</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1067</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>345</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1202</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1205</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1208</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>2275</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>2279</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>2282</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>2285</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1217</v>
       </c>
@@ -28953,7 +28953,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1051</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>402</v>
       </c>
@@ -29023,7 +29023,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>589</v>
       </c>
@@ -29058,7 +29058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>594</v>
       </c>
@@ -29093,7 +29093,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1220</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1232</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1235</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1238</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>356</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>449</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1080</v>
       </c>
@@ -29338,7 +29338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1081</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1084</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1088</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>371</v>
       </c>
@@ -29478,7 +29478,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>374</v>
       </c>
@@ -29513,7 +29513,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>380</v>
       </c>
@@ -29548,7 +29548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1857</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1947</v>
       </c>
@@ -29618,7 +29618,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1951</v>
       </c>
@@ -29653,7 +29653,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>316</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>235</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>240</v>
       </c>
@@ -29758,7 +29758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1360</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>2349</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>2350</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>2351</v>
       </c>
@@ -29898,7 +29898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>2352</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>243</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>233</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>245</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>250</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>254</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>255</v>
       </c>
@@ -30143,7 +30143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1316</v>
       </c>
@@ -30178,7 +30178,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1987</v>
       </c>
@@ -30213,7 +30213,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1990</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1993</v>
       </c>
@@ -30283,7 +30283,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1996</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1999</v>
       </c>
@@ -30353,7 +30353,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>2396</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>25</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>439</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>443</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>446</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1096</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1124</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>18</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1113</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1121</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1144</v>
       </c>
@@ -30773,7 +30773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>952</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1153</v>
       </c>
@@ -30843,7 +30843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>279</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>283</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1421</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1914</v>
       </c>
@@ -30983,7 +30983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1918</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>675</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>679</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>891</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>2262</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1789</v>
       </c>
@@ -31193,7 +31193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2268</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1259</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>178</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1814</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1664</v>
       </c>
@@ -31368,7 +31368,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1667</v>
       </c>
@@ -31403,7 +31403,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1677</v>
       </c>
@@ -31438,7 +31438,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1687</v>
       </c>
@@ -31473,7 +31473,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1689</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1691</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1738</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>560</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>566</v>
       </c>
@@ -31648,7 +31648,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>570</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>35</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>609</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>613</v>
       </c>
@@ -31788,7 +31788,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1706</v>
       </c>
@@ -31823,7 +31823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1710</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1715</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1718</v>
       </c>
@@ -31928,7 +31928,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1811</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2156</v>
       </c>
@@ -31998,7 +31998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2159</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1274</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1905</v>
       </c>
@@ -32103,7 +32103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>355</v>
       </c>
@@ -32138,7 +32138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1505</v>
       </c>
@@ -32173,7 +32173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1510</v>
       </c>
@@ -32208,7 +32208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1751</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>706</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>252</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>58</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>205</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>571</v>
       </c>
@@ -32418,7 +32418,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>236</v>
       </c>
@@ -32453,7 +32453,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>572</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>705</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>709</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>712</v>
       </c>
@@ -32593,7 +32593,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>66</v>
       </c>
@@ -32628,7 +32628,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>72</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>24</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1655</v>
       </c>
@@ -32733,7 +32733,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1658</v>
       </c>
@@ -32768,7 +32768,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1668</v>
       </c>
@@ -32803,7 +32803,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1671</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1688</v>
       </c>
@@ -32873,7 +32873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>615</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>620</v>
       </c>
@@ -32943,7 +32943,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>556</v>
       </c>
@@ -32978,7 +32978,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>574</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1324</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1330</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>217</v>
       </c>
@@ -33118,7 +33118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>667</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>874</v>
       </c>
@@ -33188,7 +33188,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>810</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>815</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>836</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>840</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>844</v>
       </c>
@@ -33363,7 +33363,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>651</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>872</v>
       </c>
@@ -33433,7 +33433,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>826</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>849</v>
       </c>
@@ -33503,7 +33503,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>853</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>762</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>900</v>
       </c>
@@ -33608,7 +33608,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>49</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>54</v>
       </c>
@@ -33678,7 +33678,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>325</v>
       </c>
@@ -33713,7 +33713,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>328</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>331</v>
       </c>
@@ -33783,7 +33783,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>334</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>623</v>
       </c>
@@ -33853,7 +33853,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>627</v>
       </c>
@@ -33888,7 +33888,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>358</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>835</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>887</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>754</v>
       </c>
@@ -34028,7 +34028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>758</v>
       </c>
@@ -34063,7 +34063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>42</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>630</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>498</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>280</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>433</v>
       </c>
@@ -34238,7 +34238,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>361</v>
       </c>
@@ -34273,7 +34273,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>364</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>78</v>
       </c>
@@ -34343,7 +34343,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>466</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>477</v>
       </c>
@@ -34413,7 +34413,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>1417</v>
       </c>
@@ -34448,7 +34448,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>468</v>
       </c>
@@ -34483,7 +34483,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>766</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>778</v>
       </c>
@@ -34553,7 +34553,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>784</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>791</v>
       </c>
@@ -34623,7 +34623,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>795</v>
       </c>
@@ -34658,7 +34658,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>799</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>320</v>
       </c>
@@ -34728,7 +34728,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>79</v>
       </c>
@@ -34763,7 +34763,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>480</v>
       </c>
@@ -34833,7 +34833,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>485</v>
       </c>
@@ -34868,7 +34868,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>1788</v>
       </c>
@@ -34903,7 +34903,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>426</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>992</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2362</v>
       </c>
@@ -35008,7 +35008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>1700</v>
       </c>
@@ -35043,7 +35043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>1704</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>1712</v>
       </c>
@@ -35113,7 +35113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>1719</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>1728</v>
       </c>
@@ -35183,7 +35183,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>1730</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>2369</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>150</v>
       </c>
@@ -35288,7 +35288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>722</v>
       </c>
@@ -35323,7 +35323,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>646</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>1744</v>
       </c>
@@ -35393,7 +35393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>1680</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>1733</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>1747</v>
       </c>
@@ -35498,7 +35498,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>2094</v>
       </c>
@@ -35533,7 +35533,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>1754</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>1759</v>
       </c>
@@ -35603,7 +35603,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>1762</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>2030</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>2034</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>2037</v>
       </c>
@@ -35743,7 +35743,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>2041</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>2044</v>
       </c>
@@ -35813,7 +35813,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>44</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2056</v>
       </c>
@@ -35883,7 +35883,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>2072</v>
       </c>
@@ -35918,7 +35918,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>481</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>2079</v>
       </c>
@@ -35988,7 +35988,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>1463</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>368</v>
       </c>
@@ -36058,7 +36058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>2084</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>2088</v>
       </c>
@@ -36128,7 +36128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>2109</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>2115</v>
       </c>
@@ -36198,7 +36198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>1750</v>
       </c>

--- a/data/paragens.xlsx
+++ b/data/paragens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ribeiro\Projetos\srcr-transportes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribeiro/Projetos/srcr-transportes/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BE70F-5E71-43F3-A3DF-A7E59F1AD4AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BEE2C-010B-D044-A36E-FF8BE465BBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="2478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8096" uniqueCount="2478">
   <si>
     <t>latitude</t>
   </si>
@@ -7869,21 +7869,21 @@
   <sheetPr codeName="Sheet 1"/>
   <dimension ref="A1:K810"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView tabSelected="1" topLeftCell="A398" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C418" sqref="C418"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="27.125" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="10" width="30.875" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2103</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>940</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>943</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>173</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1651</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1304</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1307</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1569</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1572</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1575</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1589</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2016</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2020</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1729</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1765</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>981</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>984</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1001</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1002</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1182</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1190</v>
       </c>
@@ -8688,7 +8688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1344</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1348</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1697</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1180</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1310</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1315</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>988</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1308</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1314</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1455</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1763</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>811</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2045</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2048</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>918</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>923</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>926</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>929</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>932</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1193</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1795</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1800</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1801</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2217</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2366</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1711</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1720</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1721</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1724</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2373</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1971</v>
       </c>
@@ -9808,7 +9808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>2027</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1472</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2023</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>317</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1480</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1483</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>935</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>960</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>964</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1005</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1009</v>
       </c>
@@ -10193,7 +10193,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>2207</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2248</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2390</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2391</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>337</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>340</v>
       </c>
@@ -10403,7 +10403,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>265</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>271</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1587</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1588</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>578</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2100</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>513</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>523</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>524</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>527</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>538</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2013</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1183</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1041</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1042</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2193</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1377</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1384</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2200</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>547</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1860</v>
       </c>
@@ -11173,7 +11173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1275</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>561</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1867</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2198</v>
       </c>
@@ -11313,7 +11313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2332</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1264</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1808</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>698</v>
       </c>
@@ -11453,7 +11453,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>700</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>701</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>702</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1261</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1271</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1878</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>972</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>983</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>534</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2008</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2010</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1612</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1614</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>530</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2009</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1603</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>440</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>961</v>
       </c>
@@ -12083,7 +12083,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>517</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>947</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1103</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1590</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1576</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1578</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1580</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1581</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1582</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1594</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1595</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1596</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1597</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1875</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1585</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1593</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2091</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2106</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2112</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1636</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1638</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1639</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2061</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2064</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2069</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2073</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2074</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>461</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2085</v>
       </c>
@@ -13098,7 +13098,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1191</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>668</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>718</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>719</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>73</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>75</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1110</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>395</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>643</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>650</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1102</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1446</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1447</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1449</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1661</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1057</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1674</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1684</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1690</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1692</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1741</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>715</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>552</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>562</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>565</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>569</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>614</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>617</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1337</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>640</v>
       </c>
@@ -14148,7 +14148,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1106</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1006</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1445</v>
       </c>
@@ -14253,7 +14253,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>636</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1796</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>385</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>389</v>
       </c>
@@ -14393,7 +14393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>386</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>366</v>
       </c>
@@ -14463,7 +14463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1901</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>343</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1380</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1387</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1092</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1396</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1406</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1407</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2197</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>29</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1399</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1403</v>
       </c>
@@ -14883,7 +14883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1420</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1425</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1428</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>348</v>
       </c>
@@ -15023,7 +15023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2189</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>38</v>
       </c>
@@ -15093,7 +15093,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>957</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1621</v>
       </c>
@@ -15163,7 +15163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1625</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1628</v>
       </c>
@@ -15233,7 +15233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1829</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1834</v>
       </c>
@@ -15303,7 +15303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1053</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1870</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1807</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2199</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1921</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1779</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1017</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1021</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1025</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1028</v>
       </c>
@@ -15653,7 +15653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1031</v>
       </c>
@@ -15688,7 +15688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1044</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1045</v>
       </c>
@@ -15793,7 +15793,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1880</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2335</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>688</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>956</v>
       </c>
@@ -15933,7 +15933,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1101</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>686</v>
       </c>
@@ -16003,7 +16003,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>691</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>694</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>697</v>
       </c>
@@ -16108,7 +16108,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1258</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1526</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1529</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1534</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1537</v>
       </c>
@@ -16283,7 +16283,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1540</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1549</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1554</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1557</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1560</v>
       </c>
@@ -16458,7 +16458,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1563</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1873</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>549</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1267</v>
       </c>
@@ -16598,7 +16598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1291</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>365</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>367</v>
       </c>
@@ -16703,7 +16703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>463</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>467</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>1885</v>
       </c>
@@ -16808,7 +16808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>741</v>
       </c>
@@ -16843,7 +16843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>774</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>781</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>787</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>794</v>
       </c>
@@ -16983,7 +16983,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>803</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>807</v>
       </c>
@@ -17053,7 +17053,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2317</v>
       </c>
@@ -17088,7 +17088,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2320</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2181</v>
       </c>
@@ -17158,7 +17158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>631</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>436</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>81</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1414</v>
       </c>
@@ -17298,7 +17298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>800</v>
       </c>
@@ -17333,7 +17333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>381</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>475</v>
       </c>
@@ -17438,7 +17438,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>375</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>379</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>406</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>74</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>458</v>
       </c>
@@ -17613,7 +17613,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>823</v>
       </c>
@@ -17648,7 +17648,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>856</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>860</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>863</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>866</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>292</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1070</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1076</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1079</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1087</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>582</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2167</v>
       </c>
@@ -18033,7 +18033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1888</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1891</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1894</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2376</v>
       </c>
@@ -18173,7 +18173,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2380</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2162</v>
       </c>
@@ -18243,7 +18243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2170</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2173</v>
       </c>
@@ -18313,7 +18313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1755</v>
       </c>
@@ -18348,7 +18348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2178</v>
       </c>
@@ -18383,7 +18383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2307</v>
       </c>
@@ -18418,7 +18418,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2311</v>
       </c>
@@ -18453,7 +18453,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2314</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2323</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2326</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2329</v>
       </c>
@@ -18593,7 +18593,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1176</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1072</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>726</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>732</v>
       </c>
@@ -18733,7 +18733,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>735</v>
       </c>
@@ -18768,7 +18768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>738</v>
       </c>
@@ -18803,7 +18803,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>904</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>909</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>912</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>915</v>
       </c>
@@ -18943,7 +18943,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1186</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1189</v>
       </c>
@@ -19013,7 +19013,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>968</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1854</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>181</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>185</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1825</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>453</v>
       </c>
@@ -19223,7 +19223,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>457</v>
       </c>
@@ -19258,7 +19258,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1818</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1822</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1117</v>
       </c>
@@ -19363,7 +19363,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>488</v>
       </c>
@@ -19398,7 +19398,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>492</v>
       </c>
@@ -19433,7 +19433,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>495</v>
       </c>
@@ -19468,7 +19468,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1156</v>
       </c>
@@ -19503,7 +19503,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>176</v>
       </c>
@@ -19538,7 +19538,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>2300</v>
       </c>
@@ -19573,7 +19573,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1460</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>21</v>
       </c>
@@ -19643,7 +19643,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1469</v>
       </c>
@@ -19678,7 +19678,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1523</v>
       </c>
@@ -19713,7 +19713,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>2299</v>
       </c>
@@ -19748,7 +19748,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2301</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2304</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1467</v>
       </c>
@@ -19853,7 +19853,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1522</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>124</v>
       </c>
@@ -19923,7 +19923,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>128</v>
       </c>
@@ -19958,7 +19958,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>131</v>
       </c>
@@ -19993,7 +19993,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>134</v>
       </c>
@@ -20028,7 +20028,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>137</v>
       </c>
@@ -20063,7 +20063,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>140</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>143</v>
       </c>
@@ -20133,7 +20133,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>146</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1769</v>
       </c>
@@ -20203,7 +20203,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>429</v>
       </c>
@@ -20238,7 +20238,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1775</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>413</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>418</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>421</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>57</v>
       </c>
@@ -20413,7 +20413,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>63</v>
       </c>
@@ -20448,7 +20448,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>471</v>
       </c>
@@ -20483,7 +20483,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>662</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>665</v>
       </c>
@@ -20553,7 +20553,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>666</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>672</v>
       </c>
@@ -20623,7 +20623,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>394</v>
       </c>
@@ -20658,7 +20658,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>744</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>748</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>751</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>881</v>
       </c>
@@ -20798,7 +20798,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>884</v>
       </c>
@@ -20833,7 +20833,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>770</v>
       </c>
@@ -20868,7 +20868,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>501</v>
       </c>
@@ -20903,7 +20903,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>505</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>508</v>
       </c>
@@ -20973,7 +20973,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>59</v>
       </c>
@@ -21008,7 +21008,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1975</v>
       </c>
@@ -21043,7 +21043,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1978</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>870</v>
       </c>
@@ -21113,7 +21113,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>658</v>
       </c>
@@ -21148,7 +21148,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>671</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>251</v>
       </c>
@@ -21218,7 +21218,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>253</v>
       </c>
@@ -21253,7 +21253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1356</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1359</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>237</v>
       </c>
@@ -21358,7 +21358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>239</v>
       </c>
@@ -21393,7 +21393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>241</v>
       </c>
@@ -21428,7 +21428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>242</v>
       </c>
@@ -21463,7 +21463,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>246</v>
       </c>
@@ -21498,7 +21498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>247</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>2338</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>2343</v>
       </c>
@@ -21603,7 +21603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1830</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>2348</v>
       </c>
@@ -21673,7 +21673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>818</v>
       </c>
@@ -21708,7 +21708,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1351</v>
       </c>
@@ -21743,7 +21743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1363</v>
       </c>
@@ -21778,7 +21778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>895</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>899</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>2097</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>204</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>208</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>209</v>
       </c>
@@ -21988,7 +21988,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>210</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>211</v>
       </c>
@@ -22058,7 +22058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>212</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1931</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1935</v>
       </c>
@@ -22163,7 +22163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1938</v>
       </c>
@@ -22198,7 +22198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1941</v>
       </c>
@@ -22233,7 +22233,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1944</v>
       </c>
@@ -22268,7 +22268,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>967</v>
       </c>
@@ -22303,7 +22303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>974</v>
       </c>
@@ -22338,7 +22338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>977</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>980</v>
       </c>
@@ -22408,7 +22408,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>995</v>
       </c>
@@ -22443,15 +22443,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1000</v>
       </c>
-      <c r="B417" t="s">
-        <v>998</v>
-      </c>
-      <c r="C417" t="s">
-        <v>999</v>
+      <c r="B417">
+        <v>-104412.82</v>
+      </c>
+      <c r="C417">
+        <v>-96635.62</v>
       </c>
       <c r="D417" t="s">
         <v>11</v>
@@ -22478,7 +22478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>605</v>
       </c>
@@ -22513,7 +22513,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1163</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1167</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1170</v>
       </c>
@@ -22618,7 +22618,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1173</v>
       </c>
@@ -22653,7 +22653,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1342</v>
       </c>
@@ -22688,7 +22688,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1347</v>
       </c>
@@ -22723,7 +22723,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1695</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1269</v>
       </c>
@@ -22793,7 +22793,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1521</v>
       </c>
@@ -22828,7 +22828,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1566</v>
       </c>
@@ -22863,7 +22863,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1579</v>
       </c>
@@ -22898,7 +22898,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1097</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1608</v>
       </c>
@@ -22968,7 +22968,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1611</v>
       </c>
@@ -23003,7 +23003,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>996</v>
       </c>
@@ -23038,7 +23038,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1613</v>
       </c>
@@ -23073,7 +23073,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>430</v>
       </c>
@@ -23108,7 +23108,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1906</v>
       </c>
@@ -23143,7 +23143,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1981</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1339</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1452</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1516</v>
       </c>
@@ -23283,7 +23283,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1410</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>877</v>
       </c>
@@ -23353,7 +23353,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>354</v>
       </c>
@@ -23388,7 +23388,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1645</v>
       </c>
@@ -23423,7 +23423,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1648</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1954</v>
       </c>
@@ -23493,7 +23493,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1958</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1962</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1965</v>
       </c>
@@ -23598,7 +23598,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1968</v>
       </c>
@@ -23633,7 +23633,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>2203</v>
       </c>
@@ -23668,7 +23668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1458</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1882</v>
       </c>
@@ -23738,7 +23738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1296</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>2223</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>2224</v>
       </c>
@@ -23843,7 +23843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>2243</v>
       </c>
@@ -23878,7 +23878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>2244</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>2245</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>188</v>
       </c>
@@ -23983,7 +23983,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>192</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>2206</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>2213</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>2214</v>
       </c>
@@ -24123,7 +24123,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>624</v>
       </c>
@@ -24158,7 +24158,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>2234</v>
       </c>
@@ -24193,7 +24193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>414</v>
       </c>
@@ -24228,7 +24228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>2235</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>408</v>
       </c>
@@ -24298,7 +24298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>2255</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>2259</v>
       </c>
@@ -24368,7 +24368,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>85</v>
       </c>
@@ -24403,7 +24403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>94</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>97</v>
       </c>
@@ -24473,7 +24473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>100</v>
       </c>
@@ -24508,7 +24508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>103</v>
       </c>
@@ -24543,7 +24543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>69</v>
       </c>
@@ -24578,7 +24578,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>2136</v>
       </c>
@@ -24613,7 +24613,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>86</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>2143</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>2147</v>
       </c>
@@ -24718,7 +24718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>2150</v>
       </c>
@@ -24753,7 +24753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1844</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>606</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1849</v>
       </c>
@@ -24858,7 +24858,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1128</v>
       </c>
@@ -24893,7 +24893,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1132</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1135</v>
       </c>
@@ -24963,7 +24963,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1138</v>
       </c>
@@ -24998,7 +24998,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1141</v>
       </c>
@@ -25033,7 +25033,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1147</v>
       </c>
@@ -25068,7 +25068,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>113</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>118</v>
       </c>
@@ -25138,7 +25138,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1160</v>
       </c>
@@ -25173,7 +25173,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>90</v>
       </c>
@@ -25208,7 +25208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>106</v>
       </c>
@@ -25243,7 +25243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>110</v>
       </c>
@@ -25278,7 +25278,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1373</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1618</v>
       </c>
@@ -25348,7 +25348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>2118</v>
       </c>
@@ -25383,7 +25383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>195</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>2124</v>
       </c>
@@ -25453,7 +25453,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>2127</v>
       </c>
@@ -25488,7 +25488,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>554</v>
       </c>
@@ -25523,7 +25523,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1196</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>149</v>
       </c>
@@ -25593,7 +25593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>153</v>
       </c>
@@ -25628,7 +25628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>156</v>
       </c>
@@ -25663,7 +25663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>159</v>
       </c>
@@ -25698,7 +25698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>162</v>
       </c>
@@ -25733,7 +25733,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>165</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>577</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>586</v>
       </c>
@@ -25838,7 +25838,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>2130</v>
       </c>
@@ -25873,7 +25873,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>2185</v>
       </c>
@@ -25908,7 +25908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>676</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1056</v>
       </c>
@@ -25978,7 +25978,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1091</v>
       </c>
@@ -26013,7 +26013,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1897</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1494</v>
       </c>
@@ -26083,7 +26083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1497</v>
       </c>
@@ -26118,7 +26118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1319</v>
       </c>
@@ -26153,7 +26153,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1323</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1327</v>
       </c>
@@ -26223,7 +26223,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1334</v>
       </c>
@@ -26258,7 +26258,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>215</v>
       </c>
@@ -26293,7 +26293,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>398</v>
       </c>
@@ -26328,7 +26328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1224</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1227</v>
       </c>
@@ -26398,7 +26398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>723</v>
       </c>
@@ -26433,7 +26433,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1369</v>
       </c>
@@ -26468,7 +26468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>258</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>262</v>
       </c>
@@ -26538,7 +26538,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>170</v>
       </c>
@@ -26573,7 +26573,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>297</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>300</v>
       </c>
@@ -26643,7 +26643,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>303</v>
       </c>
@@ -26678,7 +26678,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>306</v>
       </c>
@@ -26713,7 +26713,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>286</v>
       </c>
@@ -26748,7 +26748,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>309</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>312</v>
       </c>
@@ -26818,7 +26818,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>315</v>
       </c>
@@ -26853,7 +26853,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>2271</v>
       </c>
@@ -26888,7 +26888,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1012</v>
       </c>
@@ -26923,7 +26923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>905</v>
       </c>
@@ -26958,7 +26958,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>424</v>
       </c>
@@ -26993,7 +26993,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1487</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1491</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1500</v>
       </c>
@@ -27098,7 +27098,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1177</v>
       </c>
@@ -27133,7 +27133,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>541</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>544</v>
       </c>
@@ -27203,7 +27203,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>728</v>
       </c>
@@ -27238,7 +27238,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1928</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>987</v>
       </c>
@@ -27308,7 +27308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1392</v>
       </c>
@@ -27343,7 +27343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1395</v>
       </c>
@@ -27378,7 +27378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>349</v>
       </c>
@@ -27413,7 +27413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>951</v>
       </c>
@@ -27448,7 +27448,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1063</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1841</v>
       </c>
@@ -27518,7 +27518,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>610</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1868</v>
       </c>
@@ -27588,7 +27588,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1869</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>34</v>
       </c>
@@ -27658,7 +27658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1923</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1778</v>
       </c>
@@ -27728,7 +27728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1022</v>
       </c>
@@ -27763,7 +27763,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1034</v>
       </c>
@@ -27798,7 +27798,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1037</v>
       </c>
@@ -27833,7 +27833,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1040</v>
       </c>
@@ -27868,7 +27868,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1043</v>
       </c>
@@ -27903,7 +27903,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1048</v>
       </c>
@@ -27938,7 +27938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1404</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1211</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>87</v>
       </c>
@@ -28043,7 +28043,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1241</v>
       </c>
@@ -28078,7 +28078,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1245</v>
       </c>
@@ -28113,7 +28113,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1248</v>
       </c>
@@ -28148,7 +28148,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1251</v>
       </c>
@@ -28183,7 +28183,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1254</v>
       </c>
@@ -28218,7 +28218,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1782</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>597</v>
       </c>
@@ -28288,7 +28288,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>601</v>
       </c>
@@ -28323,7 +28323,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>2355</v>
       </c>
@@ -28358,7 +28358,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>2359</v>
       </c>
@@ -28393,7 +28393,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1278</v>
       </c>
@@ -28428,7 +28428,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1282</v>
       </c>
@@ -28463,7 +28463,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1285</v>
       </c>
@@ -28498,7 +28498,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1288</v>
       </c>
@@ -28533,7 +28533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1366</v>
       </c>
@@ -28568,7 +28568,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1061</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1067</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>345</v>
       </c>
@@ -28673,7 +28673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1202</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1205</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1208</v>
       </c>
@@ -28778,7 +28778,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>2275</v>
       </c>
@@ -28813,7 +28813,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>2279</v>
       </c>
@@ -28848,7 +28848,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>2282</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>2285</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1217</v>
       </c>
@@ -28953,7 +28953,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1051</v>
       </c>
@@ -28988,7 +28988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>402</v>
       </c>
@@ -29023,7 +29023,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>589</v>
       </c>
@@ -29058,7 +29058,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>594</v>
       </c>
@@ -29093,7 +29093,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1220</v>
       </c>
@@ -29128,7 +29128,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1232</v>
       </c>
@@ -29163,7 +29163,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1235</v>
       </c>
@@ -29198,7 +29198,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1238</v>
       </c>
@@ -29233,7 +29233,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>356</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>449</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1080</v>
       </c>
@@ -29338,7 +29338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1081</v>
       </c>
@@ -29373,7 +29373,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1084</v>
       </c>
@@ -29408,7 +29408,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1088</v>
       </c>
@@ -29443,7 +29443,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>371</v>
       </c>
@@ -29478,7 +29478,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>374</v>
       </c>
@@ -29513,7 +29513,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>380</v>
       </c>
@@ -29548,7 +29548,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1857</v>
       </c>
@@ -29583,7 +29583,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1947</v>
       </c>
@@ -29618,7 +29618,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1951</v>
       </c>
@@ -29653,7 +29653,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>316</v>
       </c>
@@ -29688,7 +29688,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>235</v>
       </c>
@@ -29723,7 +29723,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>240</v>
       </c>
@@ -29758,7 +29758,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1360</v>
       </c>
@@ -29793,7 +29793,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>2349</v>
       </c>
@@ -29828,7 +29828,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>2350</v>
       </c>
@@ -29863,7 +29863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>2351</v>
       </c>
@@ -29898,7 +29898,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>2352</v>
       </c>
@@ -29933,7 +29933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>243</v>
       </c>
@@ -29968,7 +29968,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>233</v>
       </c>
@@ -30003,7 +30003,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>245</v>
       </c>
@@ -30038,7 +30038,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>250</v>
       </c>
@@ -30073,7 +30073,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>254</v>
       </c>
@@ -30108,7 +30108,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>255</v>
       </c>
@@ -30143,7 +30143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1316</v>
       </c>
@@ -30178,7 +30178,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1987</v>
       </c>
@@ -30213,7 +30213,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1990</v>
       </c>
@@ -30248,7 +30248,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1993</v>
       </c>
@@ -30283,7 +30283,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1996</v>
       </c>
@@ -30318,7 +30318,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1999</v>
       </c>
@@ -30353,7 +30353,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>2396</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>25</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>439</v>
       </c>
@@ -30458,7 +30458,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>443</v>
       </c>
@@ -30493,7 +30493,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>446</v>
       </c>
@@ -30528,7 +30528,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1096</v>
       </c>
@@ -30563,7 +30563,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1124</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>10</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>18</v>
       </c>
@@ -30668,7 +30668,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1113</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1121</v>
       </c>
@@ -30738,7 +30738,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1144</v>
       </c>
@@ -30773,7 +30773,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>952</v>
       </c>
@@ -30808,7 +30808,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1153</v>
       </c>
@@ -30843,7 +30843,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>279</v>
       </c>
@@ -30878,7 +30878,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>283</v>
       </c>
@@ -30913,7 +30913,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1421</v>
       </c>
@@ -30948,7 +30948,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1914</v>
       </c>
@@ -30983,7 +30983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1918</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>675</v>
       </c>
@@ -31053,7 +31053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>679</v>
       </c>
@@ -31088,7 +31088,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>891</v>
       </c>
@@ -31123,7 +31123,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>2262</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1789</v>
       </c>
@@ -31193,7 +31193,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>2268</v>
       </c>
@@ -31228,7 +31228,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1259</v>
       </c>
@@ -31263,7 +31263,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>178</v>
       </c>
@@ -31298,7 +31298,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1814</v>
       </c>
@@ -31333,7 +31333,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1664</v>
       </c>
@@ -31368,7 +31368,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1667</v>
       </c>
@@ -31403,7 +31403,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1677</v>
       </c>
@@ -31438,7 +31438,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>1687</v>
       </c>
@@ -31473,7 +31473,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1689</v>
       </c>
@@ -31508,7 +31508,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1691</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1738</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>560</v>
       </c>
@@ -31613,7 +31613,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>566</v>
       </c>
@@ -31648,7 +31648,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>570</v>
       </c>
@@ -31683,7 +31683,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>35</v>
       </c>
@@ -31718,7 +31718,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>609</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>613</v>
       </c>
@@ -31788,7 +31788,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1706</v>
       </c>
@@ -31823,7 +31823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1710</v>
       </c>
@@ -31858,7 +31858,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1715</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1718</v>
       </c>
@@ -31928,7 +31928,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1811</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>2156</v>
       </c>
@@ -31998,7 +31998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>2159</v>
       </c>
@@ -32033,7 +32033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>1274</v>
       </c>
@@ -32068,7 +32068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1905</v>
       </c>
@@ -32103,7 +32103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>355</v>
       </c>
@@ -32138,7 +32138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1505</v>
       </c>
@@ -32173,7 +32173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1510</v>
       </c>
@@ -32208,7 +32208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1751</v>
       </c>
@@ -32243,7 +32243,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>706</v>
       </c>
@@ -32278,7 +32278,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>252</v>
       </c>
@@ -32313,7 +32313,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>58</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>205</v>
       </c>
@@ -32383,7 +32383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>571</v>
       </c>
@@ -32418,7 +32418,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>236</v>
       </c>
@@ -32453,7 +32453,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>572</v>
       </c>
@@ -32488,7 +32488,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>705</v>
       </c>
@@ -32523,7 +32523,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>709</v>
       </c>
@@ -32558,7 +32558,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>712</v>
       </c>
@@ -32593,7 +32593,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>66</v>
       </c>
@@ -32628,7 +32628,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>72</v>
       </c>
@@ -32663,7 +32663,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>24</v>
       </c>
@@ -32698,7 +32698,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>1655</v>
       </c>
@@ -32733,7 +32733,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>1658</v>
       </c>
@@ -32768,7 +32768,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>1668</v>
       </c>
@@ -32803,7 +32803,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>1671</v>
       </c>
@@ -32838,7 +32838,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>1688</v>
       </c>
@@ -32873,7 +32873,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>615</v>
       </c>
@@ -32908,7 +32908,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>620</v>
       </c>
@@ -32943,7 +32943,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>556</v>
       </c>
@@ -32978,7 +32978,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>574</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>1324</v>
       </c>
@@ -33048,7 +33048,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>1330</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>217</v>
       </c>
@@ -33118,7 +33118,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>667</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>874</v>
       </c>
@@ -33188,7 +33188,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>810</v>
       </c>
@@ -33223,7 +33223,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>815</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>836</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>840</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>844</v>
       </c>
@@ -33363,7 +33363,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>651</v>
       </c>
@@ -33398,7 +33398,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>872</v>
       </c>
@@ -33433,7 +33433,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>826</v>
       </c>
@@ -33468,7 +33468,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>849</v>
       </c>
@@ -33503,7 +33503,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>853</v>
       </c>
@@ -33538,7 +33538,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>762</v>
       </c>
@@ -33573,7 +33573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>900</v>
       </c>
@@ -33608,7 +33608,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>49</v>
       </c>
@@ -33643,7 +33643,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>54</v>
       </c>
@@ -33678,7 +33678,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>325</v>
       </c>
@@ -33713,7 +33713,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>328</v>
       </c>
@@ -33748,7 +33748,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>331</v>
       </c>
@@ -33783,7 +33783,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>334</v>
       </c>
@@ -33818,7 +33818,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>623</v>
       </c>
@@ -33853,7 +33853,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>627</v>
       </c>
@@ -33888,7 +33888,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>358</v>
       </c>
@@ -33923,7 +33923,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>835</v>
       </c>
@@ -33958,7 +33958,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>887</v>
       </c>
@@ -33993,7 +33993,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>754</v>
       </c>
@@ -34028,7 +34028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>758</v>
       </c>
@@ -34063,7 +34063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>42</v>
       </c>
@@ -34098,7 +34098,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>630</v>
       </c>
@@ -34133,7 +34133,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>498</v>
       </c>
@@ -34168,7 +34168,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>280</v>
       </c>
@@ -34203,7 +34203,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>433</v>
       </c>
@@ -34238,7 +34238,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>361</v>
       </c>
@@ -34273,7 +34273,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>364</v>
       </c>
@@ -34308,7 +34308,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>78</v>
       </c>
@@ -34343,7 +34343,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>466</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>477</v>
       </c>
@@ -34413,7 +34413,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>1417</v>
       </c>
@@ -34448,7 +34448,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>468</v>
       </c>
@@ -34483,7 +34483,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>766</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>778</v>
       </c>
@@ -34553,7 +34553,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>784</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>791</v>
       </c>
@@ -34623,7 +34623,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>795</v>
       </c>
@@ -34658,7 +34658,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>799</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>320</v>
       </c>
@@ -34728,7 +34728,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>79</v>
       </c>
@@ -34763,7 +34763,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>121</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>480</v>
       </c>
@@ -34833,7 +34833,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>485</v>
       </c>
@@ -34868,7 +34868,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>1788</v>
       </c>
@@ -34903,7 +34903,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>426</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>992</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>2362</v>
       </c>
@@ -35008,7 +35008,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>1700</v>
       </c>
@@ -35043,7 +35043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>1704</v>
       </c>
@@ -35078,7 +35078,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>1712</v>
       </c>
@@ -35113,7 +35113,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>1719</v>
       </c>
@@ -35148,7 +35148,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>1728</v>
       </c>
@@ -35183,7 +35183,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>1730</v>
       </c>
@@ -35218,7 +35218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>2369</v>
       </c>
@@ -35253,7 +35253,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>150</v>
       </c>
@@ -35288,7 +35288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>722</v>
       </c>
@@ -35323,7 +35323,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>646</v>
       </c>
@@ -35358,7 +35358,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>1744</v>
       </c>
@@ -35393,7 +35393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>1680</v>
       </c>
@@ -35428,7 +35428,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>1733</v>
       </c>
@@ -35463,7 +35463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>1747</v>
       </c>
@@ -35498,7 +35498,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>2094</v>
       </c>
@@ -35533,7 +35533,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>1754</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>1759</v>
       </c>
@@ -35603,7 +35603,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>1762</v>
       </c>
@@ -35638,7 +35638,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>2030</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>2034</v>
       </c>
@@ -35708,7 +35708,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>2037</v>
       </c>
@@ -35743,7 +35743,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>2041</v>
       </c>
@@ -35778,7 +35778,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>2044</v>
       </c>
@@ -35813,7 +35813,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>44</v>
       </c>
@@ -35848,7 +35848,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>2056</v>
       </c>
@@ -35883,7 +35883,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>2072</v>
       </c>
@@ -35918,7 +35918,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>481</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>2079</v>
       </c>
@@ -35988,7 +35988,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>1463</v>
       </c>
@@ -36023,7 +36023,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>368</v>
       </c>
@@ -36058,7 +36058,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>2084</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>2088</v>
       </c>
@@ -36128,7 +36128,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>2109</v>
       </c>
@@ -36163,7 +36163,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>2115</v>
       </c>
@@ -36198,7 +36198,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>1750</v>
       </c>
